--- a/mcmaster_excel/18-8_Stainless_Steel_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/18-8_Stainless_Steel_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Min.Thread Lg.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Style</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>000-120</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Drive</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -519,84 +495,72 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/16"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>Min.Thread Lg.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.065"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.018"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Style</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>IP1, T1</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90910A310</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>$14.73</t>
+          <t>Pkg.</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>1/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -646,15 +610,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90910A315</t>
+          <t>90910A310</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>14.77</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
+          <t>$14.73</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -664,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -704,25 +672,29 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90910A600</t>
+          <t>90910A315</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>19.01</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -732,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,15 +754,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90910A603</t>
+          <t>90910A600</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>19.26</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -800,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -850,15 +826,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90910A606</t>
+          <t>90910A603</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>19.52</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -868,21 +848,69 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00-90</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.065"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.018"</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IP1, T1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>90910A606</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>000-120</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -950,7 +978,11 @@
           <t>14.73</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1018,7 +1050,11 @@
           <t>14.77</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1086,7 +1122,11 @@
           <t>18.10</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1154,7 +1194,11 @@
           <t>18.24</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>00-90</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1164,21 +1208,69 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>1/8"</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.089"</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.025"</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>IP2, T2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>90910A440</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>00-96</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1188,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1238,15 +1330,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90910A440</t>
+          <t>90910A443</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>14.85</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>00-96</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1256,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1306,15 +1402,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90910A443</t>
+          <t>90910A445</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>14.93</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>00-96</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1324,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1339,12 +1439,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.089"</t>
+          <t>0.114"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.025"</t>
+          <t>0.032"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1354,7 +1454,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>IP2, T2</t>
+          <t>IP5, T5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1369,20 +1469,24 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90910A445</t>
+          <t>90910A665</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>14.98</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1392,21 +1496,69 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>3/16"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.114"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.032"</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>IP5, T5</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>90910A667</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>0-80</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1416,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1466,15 +1618,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90910A665</t>
+          <t>90910A669</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>15.54</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1484,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1509,12 +1665,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>IP5, T5</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1529,20 +1685,24 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90910A667</t>
+          <t>90910A480</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15.66</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1552,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1577,12 +1737,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>IP5, T5</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1597,20 +1757,24 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90910A669</t>
+          <t>90910A482</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>15.80</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0-80</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1620,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/32"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1635,12 +1799,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.114"</t>
+          <t>0.164"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1650,7 +1814,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1670,15 +1834,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90910A480</t>
+          <t>90910A560</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>15.81</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr"/>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1688,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1703,22 +1871,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.114"</t>
+          <t>0.164"</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.032"</t>
+          <t>0.046"</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>IP6, T6</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1733,20 +1901,24 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90910A482</t>
+          <t>90910A781</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr"/>
+          <t>11.85</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2-56</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
@@ -1756,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3/32"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1781,12 +1953,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>IP6, T6</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1801,17 +1973,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90910A560</t>
+          <t>90910A680</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1828,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1878,12 +2050,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90910A781</t>
+          <t>90910A682</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>11.85</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1900,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1950,12 +2122,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90910A680</t>
+          <t>90910A683</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>12.45</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1972,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +2194,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90910A682</t>
+          <t>90910A686</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2044,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2094,12 +2266,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90910A683</t>
+          <t>90910A782</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>12.79</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2116,17 +2288,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>43/64"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2141,12 +2313,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>IP6, T6</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2161,17 +2333,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90910A686</t>
+          <t>90910A563</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>18.30</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2188,17 +2360,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>43/64"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2213,12 +2385,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>IP6, T6</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2233,17 +2405,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90910A782</t>
+          <t>90910A569</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>12.79</t>
+          <t>19.72</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2260,37 +2432,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>43/64"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.164"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2305,22 +2477,22 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90910A563</t>
+          <t>90910A783</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>18.30</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2332,37 +2504,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>43/64"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.164"</t>
+          <t>0.213"</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.046"</t>
+          <t>0.059"</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>IP8, T8</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2377,22 +2549,22 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90910A569</t>
+          <t>90910A710</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>19.72</t>
+          <t>11.43</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2404,23 +2576,67 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>1/4"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.213"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.059"</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>IP8, T8</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>90910A712</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>4-40</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2432,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2482,17 +2698,17 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90910A783</t>
+          <t>90910A714</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2504,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2554,17 +2770,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>90910A710</t>
+          <t>90910A716</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>11.43</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2576,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2626,17 +2842,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90910A712</t>
+          <t>90910A718</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2648,7 +2864,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2673,12 +2889,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2693,22 +2909,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>90910A714</t>
+          <t>90910A721</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>17.36</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2720,7 +2936,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2745,12 +2961,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2765,22 +2981,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>90910A716</t>
+          <t>90910A724</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>11.82</t>
+          <t>17.89</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2792,17 +3008,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Partially Threaded</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>0.724"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2817,12 +3033,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>IP8, T8</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2837,22 +3053,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>90910A718</t>
+          <t>90910A727</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>20.55</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2864,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2879,12 +3095,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2894,7 +3110,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2914,17 +3130,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90910A721</t>
+          <t>90910A810</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2936,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2951,12 +3167,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2966,7 +3182,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2986,17 +3202,17 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>90910A724</t>
+          <t>90910A813</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>15.97</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3008,37 +3224,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Partially Threaded</t>
+          <t>Fully Threaded</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0.724"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.213"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.059"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3053,22 +3269,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>90910A727</t>
+          <t>90910A730</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>20.55</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3080,23 +3296,67 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>5/16"</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.262"</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0.073"</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>T10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>90910A815</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>6-32</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3108,7 +3368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3133,12 +3393,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3153,22 +3413,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>90910A810</t>
+          <t>90910A732</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3180,7 +3440,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3205,12 +3465,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3225,22 +3485,22 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90910A813</t>
+          <t>90910A735</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>15.97</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3252,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3302,17 +3562,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>90910A730</t>
+          <t>90910A738</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3324,7 +3584,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3349,12 +3609,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>IP10, T10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3369,22 +3629,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>90910A815</t>
+          <t>90910A741</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>13.10</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3396,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3446,17 +3706,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>90910A732</t>
+          <t>90910A744</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3468,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3493,12 +3753,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3508,27 +3768,27 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90910A735</t>
+          <t>90600A040</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3540,7 +3800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3555,22 +3815,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3585,22 +3845,22 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>90910A738</t>
+          <t>90910A860</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>17.93</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3612,7 +3872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3627,12 +3887,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3642,7 +3902,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3662,17 +3922,17 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>90910A741</t>
+          <t>90910A765</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>13.10</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3684,7 +3944,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3699,22 +3959,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>IP10, T10</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3724,27 +3984,27 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>90910A744</t>
+          <t>90600A224</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3756,7 +4016,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3771,22 +4031,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.262"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.073"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>T10</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3796,27 +4056,27 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>90600A040</t>
+          <t>90910A768</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3828,23 +4088,67 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>1/2"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.312"</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0.087"</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Torx Plus</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>IP15, T15</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>90910A771</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>13.61</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>8-32</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3856,7 +4160,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3881,12 +4185,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3901,22 +4205,22 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>90910A860</t>
+          <t>90910A774</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>17.93</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3928,7 +4232,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3978,17 +4282,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>90910A765</t>
+          <t>90910A777</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>14.51</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4000,7 +4304,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4025,12 +4329,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Torx</t>
+          <t>Torx Plus</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>IP15, T15</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4040,27 +4344,27 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>90600A224</t>
+          <t>90910A780</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4072,7 +4376,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4097,12 +4401,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4112,27 +4416,27 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>90910A768</t>
+          <t>90600A246</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>12.96</t>
+          <t>10.20</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4144,7 +4448,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4169,12 +4473,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4184,27 +4488,27 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>90910A771</t>
+          <t>90600A305</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>13.61</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4216,7 +4520,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4231,22 +4535,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4261,22 +4565,22 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>90910A774</t>
+          <t>90600A151</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4288,7 +4592,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4303,22 +4607,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4328,27 +4632,27 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>90910A777</t>
+          <t>90600A398</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>14.51</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4360,7 +4664,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4375,22 +4679,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Torx Plus</t>
+          <t>Torx</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>IP15, T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -4400,27 +4704,27 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>90910A780</t>
+          <t>90600A450</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>11.68</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4432,7 +4736,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4447,12 +4751,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4462,7 +4766,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4482,17 +4786,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>90600A246</t>
+          <t>90600A455</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>10.20</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4504,7 +4808,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4519,12 +4823,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4534,7 +4838,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4554,17 +4858,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>90600A305</t>
+          <t>90600A493</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4576,23 +4880,67 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>1 1/2"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.361"</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0.101"</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F879</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>90600A558</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
           <t>10-24</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2-56</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4654,7 +5002,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>90600A151</t>
+          <t>90600A122</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4664,7 +5012,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4716,27 +5064,27 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>90600A398</t>
+          <t>90600A123</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4788,27 +5136,27 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>90600A450</t>
+          <t>90600A124</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4860,7 +5208,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4870,17 +5218,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>90600A455</t>
+          <t>90600A125</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -4942,17 +5290,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>90600A493</t>
+          <t>90600A594</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -4964,7 +5312,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4979,12 +5327,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4994,7 +5342,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -5014,17 +5362,17 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>90600A558</t>
+          <t>90600A625</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>15.84</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5036,23 +5384,67 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>10-32</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+          <t>3/8"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>90600A126</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5064,7 +5456,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5079,12 +5471,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5094,7 +5486,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -5109,22 +5501,22 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>90600A122</t>
+          <t>90600A127</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5136,7 +5528,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5151,12 +5543,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5166,7 +5558,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5181,22 +5573,22 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>90600A123</t>
+          <t>90600A128</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>13.62</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5208,7 +5600,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5223,12 +5615,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5238,7 +5630,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5253,22 +5645,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>90600A124</t>
+          <t>90600A129</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5280,7 +5672,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5295,12 +5687,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5310,7 +5702,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -5325,22 +5717,22 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>90600A125</t>
+          <t>90600A130</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5352,27 +5744,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>1 1/4"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.437"</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.132"</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5382,7 +5774,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T27</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -5392,27 +5784,27 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>90600A594</t>
+          <t>90600A131</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5424,7 +5816,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5434,7 +5826,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5464,22 +5856,22 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>90600A625</t>
+          <t>90600A132</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -5496,7 +5888,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5536,22 +5928,22 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>90600A126</t>
+          <t>90600A629</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>12.93</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -5583,12 +5975,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5598,7 +5990,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5613,22 +6005,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>90600A127</t>
+          <t>90600A133</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5655,12 +6047,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5670,7 +6062,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -5685,22 +6077,22 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>90600A128</t>
+          <t>90600A134</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>13.62</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5727,12 +6119,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5742,7 +6134,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5757,22 +6149,22 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>90600A129</t>
+          <t>90600A135</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>11.46</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5799,12 +6191,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5814,7 +6206,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5834,17 +6226,17 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>90600A130</t>
+          <t>90600A136</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -5866,17 +6258,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5886,7 +6278,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5906,17 +6298,17 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>90600A131</t>
+          <t>90600A152</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>13.73</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -5938,17 +6330,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>__</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5958,7 +6350,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5968,7 +6360,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5978,17 +6370,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>90600A132</t>
+          <t>90600A784</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6000,7 +6392,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6015,12 +6407,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.547"</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.166"</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6030,7 +6422,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T40</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6040,7 +6432,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>ASME B18.3, ASTM F879</t>
+          <t>ASME B18.3</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6050,17 +6442,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>90600A629</t>
+          <t>90600A153</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>6.30</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>5/16"-18</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6072,23 +6464,67 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>2"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.547"</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0.166"</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Torx</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>T40</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>ASME B18.3, ASTM F879</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>90600A822</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
           <t>5/16"-18</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6100,7 +6536,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6115,12 +6551,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6130,7 +6566,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -6145,22 +6581,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>90600A133</t>
+          <t>90600A137</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6172,7 +6608,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6187,12 +6623,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6202,7 +6638,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6217,22 +6653,22 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>90600A134</t>
+          <t>90600A138</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6244,7 +6680,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6259,12 +6695,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6274,7 +6710,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -6289,22 +6725,22 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>90600A135</t>
+          <t>90600A139</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>11.46</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6316,7 +6752,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6326,17 +6762,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6346,7 +6782,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -6361,22 +6797,22 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>90600A136</t>
+          <t>90600A140</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6388,7 +6824,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6403,12 +6839,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.547"</t>
+          <t>0.656"</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0.166"</t>
+          <t>0.199"</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6418,7 +6854,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>T40</t>
+          <t>T45</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6428,634 +6864,30 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>ASME B18.3</t>
+          <t>ASME B18.3, ASTM F879</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>90600A152</t>
+          <t>90600A050</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>13.73</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>3/8"-16</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.547"</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0.166"</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>ASME B18.3, ASTM F879</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>90600A784</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>1 3/4"</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.547"</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0.166"</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>90600A153</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>13.48</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.547"</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>0.166"</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>ASME B18.3, ASTM F879</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>90600A822</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>3/8"-16</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>3/4"</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>90600A137</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>10.28</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>1"</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>90600A138</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>1 1/4"</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>90600A139</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>10.53</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1 1/2"</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>1 1/4"</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>90600A140</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>11.45</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2"</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0.656"</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0.199"</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Torx</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>ASME B18.3, ASTM F879</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>90600A050</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>1/4"-20</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
